--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t xml:space="preserve">EXP_ID</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t xml:space="preserve">mse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_13</t>
   </si>
 </sst>
 </file>
@@ -79,6 +100,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,6 +121,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,16 +192,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="14:14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -352,6 +372,209 @@
       </c>
       <c r="I6" s="0" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -5,56 +5,77 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t xml:space="preserve">EXP_ID</t>
   </si>
   <si>
+    <t xml:space="preserve">N_EPOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS_TRAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOSS_FUNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTPUT_DIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INPUT_DIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME_STEPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MODEL_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">OUTPUT_DIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INPUT_DIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIME_STEPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N_EPOCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRAIN_MODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOSS</t>
+    <t xml:space="preserve">IS_RUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANK_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIT_LOSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIT_MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUIT_EPOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cosine_proximity</t>
   </si>
   <si>
     <t xml:space="preserve">LSTM_3</t>
   </si>
   <si>
-    <t xml:space="preserve">cosine_proximity</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSTM_4</t>
   </si>
   <si>
@@ -86,6 +107,18 @@
   </si>
   <si>
     <t xml:space="preserve">LSTM_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_17</t>
   </si>
 </sst>
 </file>
@@ -97,8 +130,9 @@
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -118,9 +152,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -132,12 +168,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -171,8 +214,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -192,15 +235,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="14:14"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -228,362 +274,640 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
+      <c r="B2" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>400</v>
+        <v>-0.00476829491629077</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>100</v>
+        <v>0.0945493207000307</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>11</v>
+      <c r="B3" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>400</v>
+        <v>-0.00477361487198191</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>100</v>
+        <v>0.0950477470037949</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
+      <c r="B4" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>400</v>
+        <v>-0.00338796455825933</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>100</v>
+        <v>0.320695427436731</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
+      <c r="B5" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>400</v>
+        <v>-0.00347194987412904</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>100</v>
+        <v>0.092312949479985</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>13</v>
+      <c r="B6" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>100</v>
+        <v>0.00179753175561791</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>15</v>
+      <c r="B7" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>400</v>
+        <v>-0.00277323299333024</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>100</v>
+        <v>0.939690690185732</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
+      <c r="B8" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>400</v>
+        <v>-0.00276157917281926</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>100</v>
+        <v>0.940270512114088</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
+      <c r="B9" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>400</v>
+        <v>-0.00349818291723049</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>100</v>
+        <v>0.0268541309829874</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>18</v>
+      <c r="B10" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>400</v>
+        <v>-0.00229722656977079</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>100</v>
+        <v>0.0188108694862728</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>19</v>
+      <c r="B11" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>400</v>
+        <v>-0.00353070751670368</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>100</v>
+        <v>0.0687832779252634</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>20</v>
+      <c r="B12" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>400</v>
+        <v>-0.0036936310824156</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>100</v>
+        <v>0.07199577160159</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>21</v>
+      <c r="B13" s="0" t="n">
+        <v>400</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>400</v>
+        <v>-0.00349463780606572</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>100</v>
+        <v>0.0557147872583058</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>10</v>
+        <v>200</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
   <si>
     <t xml:space="preserve">EXP_ID</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">QUIT_EPOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N_PARAMS</t>
   </si>
   <si>
     <t xml:space="preserve">cosine_proximity</t>
@@ -209,13 +212,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -235,18 +242,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -294,6 +305,9 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,7 +324,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>-0.00476829491629077</v>
@@ -328,10 +342,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0.598482053444368</v>
@@ -360,7 +374,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>-0.00477361487198191</v>
@@ -378,10 +392,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0.503981950079951</v>
@@ -410,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>-0.00338796455825933</v>
@@ -428,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0.502748132409504</v>
@@ -460,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>-0.00347194987412904</v>
@@ -478,10 +492,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0.493991461550625</v>
@@ -510,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0.00179753175561791</v>
@@ -525,10 +539,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0.501413401625372</v>
@@ -557,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>-0.00277323299333024</v>
@@ -575,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>0.502793255820786</v>
@@ -607,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>-0.00276157917281926</v>
@@ -625,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0.501375416851643</v>
@@ -657,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>-0.00349818291723049</v>
@@ -675,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0.503284682962899</v>
@@ -707,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>-0.00229722656977079</v>
@@ -725,10 +739,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0.50179717977985</v>
@@ -757,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>-0.00353070751670368</v>
@@ -775,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0.508682951232205</v>
@@ -807,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>-0.0036936310824156</v>
@@ -825,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0.505704861641328</v>
@@ -857,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>-0.00349463780606572</v>
@@ -875,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>0.50497758169209</v>
@@ -893,7 +907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>15</v>
       </c>
@@ -907,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>-0.00349463780606572</v>
@@ -925,13 +939,16 @@
         <v>1</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="0" t="n">
+        <v>947456</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>16</v>
       </c>
@@ -945,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>-0.00349463780606572</v>
@@ -963,10 +980,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>0.503914202465232</v>
@@ -980,8 +997,11 @@
       <c r="P15" s="0" t="n">
         <v>190</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q15" s="0" t="n">
+        <v>626256</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>17</v>
       </c>
@@ -995,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>-0.00349463780606572</v>
@@ -1013,10 +1033,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0.505348915840254</v>
@@ -1030,8 +1050,11 @@
       <c r="P16" s="0" t="n">
         <v>165</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q16" s="0" t="n">
+        <v>884800</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>18</v>
       </c>
@@ -1045,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>-0.00349463780606572</v>
@@ -1063,9 +1086,249 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>-0.00414294450116632</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.00549777720553295</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>563600</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>-0.00476829491629077</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.0945493207000307</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>-0.00477361487198191</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.0950477470037949</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>-0.00349463780606572</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.0557147872583058</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -247,18 +247,18 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="F20:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1205,7 @@
         <v>13933264</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>21</v>
       </c>
@@ -1221,12 +1221,6 @@
       <c r="E20" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>-0.00349463780606572</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0.0557147872583058</v>
-      </c>
       <c r="H20" s="0" t="n">
         <v>200</v>
       </c>
@@ -1240,10 +1234,10 @@
         <v>31</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>22</v>
       </c>
@@ -1259,12 +1253,6 @@
       <c r="E21" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>-0.00349463780606572</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>0.0557147872583058</v>
-      </c>
       <c r="H21" s="0" t="n">
         <v>200</v>
       </c>
@@ -1278,10 +1266,10 @@
         <v>32</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>23</v>
       </c>
@@ -1297,12 +1285,6 @@
       <c r="E22" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>-0.00349463780606572</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0.0557147872583058</v>
-      </c>
       <c r="H22" s="0" t="n">
         <v>200</v>
       </c>
@@ -1316,10 +1298,10 @@
         <v>33</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>24</v>
       </c>
@@ -1335,12 +1317,6 @@
       <c r="E23" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>-0.00349463780606572</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>0.0557147872583058</v>
-      </c>
       <c r="H23" s="0" t="n">
         <v>200</v>
       </c>
@@ -1354,7 +1330,7 @@
         <v>34</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,12 +1348,6 @@
       </c>
       <c r="E24" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>-0.00349463780606572</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>0.0557147872583058</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>200</v>

--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t xml:space="preserve">EXP_ID</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">LSTM_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM_19</t>
   </si>
 </sst>
 </file>
@@ -244,21 +247,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="F20:G24"/>
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,6 +1365,38 @@
         <v>35</v>
       </c>
       <c r="L24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t xml:space="preserve">EXP_ID</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">LOSS_FUNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSE</t>
   </si>
   <si>
     <t xml:space="preserve">OUTPUT_DIM</t>
@@ -247,21 +241,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,12 +301,6 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -334,39 +316,33 @@
         <v>0</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.598482053444368</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>-0.00476829491629077</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>0.0945493207000307</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0.598482053444368</v>
-      </c>
       <c r="N2" s="0" t="n">
-        <v>-0.00476829491629077</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.0945493207000307</v>
-      </c>
-      <c r="P2" s="0" t="n">
         <v>121</v>
       </c>
     </row>
@@ -384,39 +360,33 @@
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.503981950079951</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>-0.00477361487198191</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>0.0950477470037949</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.503981950079951</v>
-      </c>
       <c r="N3" s="0" t="n">
-        <v>-0.00477361487198191</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0.0950477470037949</v>
-      </c>
-      <c r="P3" s="0" t="n">
         <v>279</v>
       </c>
     </row>
@@ -434,39 +404,33 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.502748132409504</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>-0.00338796455825933</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>0.320695427436731</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0.502748132409504</v>
-      </c>
       <c r="N4" s="0" t="n">
-        <v>-0.00338796455825933</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0.320695427436731</v>
-      </c>
-      <c r="P4" s="0" t="n">
         <v>101</v>
       </c>
     </row>
@@ -484,39 +448,33 @@
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.493991461550625</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>-0.00347194987412904</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>0.092312949479985</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0.493991461550625</v>
-      </c>
       <c r="N5" s="0" t="n">
-        <v>-0.00347194987412904</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <v>0.092312949479985</v>
-      </c>
-      <c r="P5" s="0" t="n">
         <v>102</v>
       </c>
     </row>
@@ -534,36 +492,33 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="G6" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.501413401625372</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>0.00179753175561791</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" s="0" t="n">
-        <v>0.501413401625372</v>
+        <v>0.00179753175561791</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.00179753175561791</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>0.00179753175561791</v>
-      </c>
-      <c r="P6" s="0" t="n">
         <v>109</v>
       </c>
     </row>
@@ -581,42 +536,36 @@
         <v>0</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.500810108359788</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>-0.00277323299333024</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>0.939690690185732</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>0.500810108359788</v>
-      </c>
       <c r="N7" s="0" t="n">
-        <v>-0.00277323299333024</v>
+        <v>102</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.939690690185732</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="0" t="n">
         <v>10974408</v>
       </c>
     </row>
@@ -634,39 +583,33 @@
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.501375416851643</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>-0.00276157917281926</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>0.940270512114088</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0.501375416851643</v>
-      </c>
       <c r="N8" s="0" t="n">
-        <v>-0.00276157917281926</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <v>0.940270512114088</v>
-      </c>
-      <c r="P8" s="0" t="n">
         <v>102</v>
       </c>
     </row>
@@ -684,39 +627,33 @@
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.503284682962899</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>-0.00349818291723049</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0.0268541309829874</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" s="0" t="n">
-        <v>0.503284682962899</v>
+        <v>0.0268541309829875</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>-0.00349818291723049</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>0.0268541309829875</v>
-      </c>
-      <c r="P9" s="0" t="n">
         <v>101</v>
       </c>
     </row>
@@ -734,39 +671,33 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.50179717977985</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>-0.00229722656977079</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>0.0188108694862728</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>0.50179717977985</v>
-      </c>
       <c r="N10" s="0" t="n">
-        <v>-0.00229722656977079</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0.0188108694862728</v>
-      </c>
-      <c r="P10" s="0" t="n">
         <v>102</v>
       </c>
     </row>
@@ -784,39 +715,33 @@
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.508682951232205</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>-0.00353070751670368</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>0.0687832779252634</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0.508682951232205</v>
-      </c>
       <c r="N11" s="0" t="n">
-        <v>-0.00353070751670368</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.0687832779252634</v>
-      </c>
-      <c r="P11" s="0" t="n">
         <v>102</v>
       </c>
     </row>
@@ -834,39 +759,33 @@
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.505704861641328</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>-0.0036936310824156</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>0.07199577160159</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>0.505704861641328</v>
-      </c>
       <c r="N12" s="0" t="n">
-        <v>-0.0036936310824156</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>0.07199577160159</v>
-      </c>
-      <c r="P12" s="0" t="n">
         <v>161</v>
       </c>
     </row>
@@ -884,39 +803,33 @@
         <v>0</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.50497758169209</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>-0.00349463780606572</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>0.0557147872583058</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>0.50497758169209</v>
-      </c>
       <c r="N13" s="0" t="n">
-        <v>-0.00349463780606572</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0.0557147872583058</v>
-      </c>
-      <c r="P13" s="0" t="n">
         <v>102</v>
       </c>
     </row>
@@ -934,30 +847,24 @@
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-0.00349463780606572</v>
+        <v>200</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.0557147872583058</v>
+        <v>200</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
         <v>947456</v>
       </c>
     </row>
@@ -975,42 +882,36 @@
         <v>1</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-0.00349463780606572</v>
+        <v>200</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.0557147872583058</v>
+        <v>200</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.503914202465232</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0</v>
+        <v>-0.00405148937403596</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.503914202465232</v>
+        <v>0.0112757147448735</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>-0.00405148937403596</v>
+        <v>190</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.0112757147448735</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="Q15" s="0" t="n">
         <v>626256</v>
       </c>
     </row>
@@ -1028,42 +929,36 @@
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-0.00349463780606572</v>
+        <v>200</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.0557147872583058</v>
+        <v>200</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>0.505348915840254</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0</v>
+        <v>-0.00417276498771903</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.505348915840254</v>
+        <v>0.00567199681294153</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>-0.00417276498771903</v>
+        <v>165</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.00567199681294153</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>165</v>
-      </c>
-      <c r="Q16" s="0" t="n">
         <v>884800</v>
       </c>
     </row>
@@ -1081,39 +976,33 @@
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>-0.00349463780606572</v>
+        <v>200</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0557147872583058</v>
+        <v>200</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0</v>
+        <v>-0.00414294450116632</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.00549777720553295</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>-0.00414294450116632</v>
+        <v>169</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.00549777720553295</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>169</v>
-      </c>
-      <c r="Q17" s="0" t="n">
         <v>563600</v>
       </c>
     </row>
@@ -1131,27 +1020,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.00476829491629077</v>
+        <v>200</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0945493207000307</v>
+        <v>200</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1169,46 +1052,40 @@
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>-0.00477361487198191</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>0.0950477470037949</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>200</v>
-      </c>
       <c r="J19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.493656253555844</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0</v>
+        <v>-0.00476333463643359</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0.493656253555844</v>
+        <v>28.916788279063</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>-0.00476333463643359</v>
+        <v>273</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>28.916788279063</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>273</v>
-      </c>
-      <c r="Q19" s="0" t="n">
         <v>13933264</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>21</v>
       </c>
@@ -1222,25 +1099,25 @@
         <v>1</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>22</v>
       </c>
@@ -1254,25 +1131,25 @@
         <v>1</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>23</v>
       </c>
@@ -1286,25 +1163,25 @@
         <v>1</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>24</v>
       </c>
@@ -1318,25 +1195,25 @@
         <v>1</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>25</v>
       </c>
@@ -1350,21 +1227,21 @@
         <v>1</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,21 +1259,21 @@
         <v>1</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>200</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -244,12 +244,12 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25:O25"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>100</v>

--- a/experiments/exp_logs.xlsx
+++ b/experiments/exp_logs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
   <si>
     <t xml:space="preserve">EXP_ID</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">LSTM_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-06 18:35:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-06 18:35:58</t>
   </si>
   <si>
     <t xml:space="preserve">mse</t>
@@ -253,10 +259,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1434,7 +1440,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>100</v>
@@ -1460,8 +1466,29 @@
       <c r="J36" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="0" t="n">
+        <v>0.686447650501188</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>-0.709721074981846</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.0701023645817031</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>724400</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
@@ -1490,10 +1517,10 @@
         <v>37</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
@@ -1522,10 +1549,10 @@
         <v>36</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
@@ -1554,10 +1581,10 @@
         <v>36</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
@@ -1571,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>200</v>
@@ -1586,10 +1613,10 @@
         <v>36</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
@@ -1603,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>200</v>
@@ -1618,10 +1645,10 @@
         <v>36</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>200</v>
@@ -1650,9 +1677,10 @@
         <v>36</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
